--- a/hybris-nao-tests/src/main/resources/QuickOrdValidateAddCartTest.xlsx
+++ b/hybris-nao-tests/src/main/resources/QuickOrdValidateAddCartTest.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\seleniumAutomationScripts\hybris\hyb4nov18\hybNov62017\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajkumars\git\IRWWebservice\hybris-nao-tests\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98210C0-47B7-49DF-B90F-D666F10DA27D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CE9326-0B01-4B41-9E25-E9C02BF8FCCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="19440" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuickOrdValidateAddCartTest" sheetId="18" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>TestData2</t>
   </si>
@@ -52,18 +60,6 @@
     <t>Bobcat of Regina, Ltd</t>
   </si>
   <si>
-    <t>Welcome@1</t>
-  </si>
-  <si>
-    <t>TestData4</t>
-  </si>
-  <si>
-    <t>TestData5</t>
-  </si>
-  <si>
-    <t>TestData6</t>
-  </si>
-  <si>
     <t>TestData7</t>
   </si>
   <si>
@@ -79,18 +75,12 @@
     <t>TestData11</t>
   </si>
   <si>
-    <t>TestData12</t>
-  </si>
-  <si>
     <t>rajkumars</t>
   </si>
   <si>
     <t>berberich</t>
   </si>
   <si>
-    <t>andreathomas</t>
-  </si>
-  <si>
     <t>85D10</t>
   </si>
   <si>
@@ -109,15 +99,9 @@
     <t>AB Equipment Limited</t>
   </si>
   <si>
-    <t>A.C. McCartney Equipment, Inc., Carthage, IL</t>
-  </si>
-  <si>
     <t>1364891</t>
   </si>
   <si>
-    <t>1364892</t>
-  </si>
-  <si>
     <t>1364893</t>
   </si>
   <si>
@@ -127,15 +111,6 @@
     <t>1364895</t>
   </si>
   <si>
-    <t>1364896</t>
-  </si>
-  <si>
-    <t>AAAAAEQ</t>
-  </si>
-  <si>
-    <t>Bin2</t>
-  </si>
-  <si>
     <t>AAEQ2</t>
   </si>
   <si>
@@ -154,40 +129,19 @@
     <t>Class One 2AB Equipment Limited AB Equipment Limited</t>
   </si>
   <si>
-    <t>McCartney Equipment McCartney EquipmentMcCartney EquipmentMcCartney EquipmentMcCartney EquipmentMcCartney EquipmentMcCartney Equipment</t>
-  </si>
-  <si>
-    <t>Class One 2 Class One 2Class One 2Class One 2Class One 2Class One 2Class One 2Class One 2Class One 2Class One 2</t>
-  </si>
-  <si>
-    <t>bobcat12345</t>
-  </si>
-  <si>
     <t>Welcome1</t>
   </si>
   <si>
-    <t>Welcome3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2*(</t>
   </si>
   <si>
     <t>T$$</t>
   </si>
   <si>
-    <t>Bin2$%^</t>
-  </si>
-  <si>
-    <t>1364898</t>
-  </si>
-  <si>
-    <t>TestData13</t>
-  </si>
-  <si>
-    <t>TestData14</t>
-  </si>
-  <si>
-    <t>TestData15</t>
+    <t>bobcat12</t>
+  </si>
+  <si>
+    <t>Welcome2</t>
   </si>
 </sst>
 </file>
@@ -1163,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1128,7 @@
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,43 +1136,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1226,87 +1159,45 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1317,40 +1208,19 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1225987</v>
       </c>
@@ -1358,129 +1228,66 @@
         <v>1152446</v>
       </c>
       <c r="C5" s="6">
-        <v>1225987</v>
+        <v>1226061</v>
       </c>
       <c r="D5" s="6">
-        <v>1152446</v>
+        <v>1225500</v>
       </c>
       <c r="E5" s="6">
-        <v>1060001</v>
+        <v>1123154</v>
       </c>
       <c r="F5" s="6">
-        <v>1226061</v>
+        <v>1176223</v>
       </c>
       <c r="G5" s="6">
-        <v>1225500</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1123154</v>
-      </c>
-      <c r="I5" s="6">
         <v>1176223</v>
       </c>
-      <c r="J5" s="6">
-        <v>1176223</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1176223</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1225987</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1152446</v>
-      </c>
-      <c r="N5" s="6">
-        <v>1060001</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>6.5165576516557605E+48</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
-        <v>40050400116</v>
-      </c>
-      <c r="D6" s="6">
-        <v>65165573</v>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="3">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3">
         <v>7</v>
       </c>
-      <c r="J7" s="3">
+      <c r="G7" s="3">
         <v>7</v>
       </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>2</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1494,37 +1301,16 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="4">
-        <v>110</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1532,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>3</v>
@@ -1541,34 +1327,13 @@
         <v>3</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1576,96 +1341,50 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="E11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="G11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{8D423580-9759-4B45-BEC2-DB54A81633BE}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{40330722-6761-4AD3-A0F1-7C0F582EA107}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{BA0504EB-BCD8-4AD3-B0F1-23B64CB72CD0}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{4E3758C5-A80A-4218-BC1C-AF85C5770CBC}"/>
-    <hyperlink ref="L3" r:id="rId5" xr:uid="{21E8977C-6AAB-4408-884A-95C71C4509D8}"/>
-    <hyperlink ref="M3" r:id="rId6" xr:uid="{89C4F14B-AFE2-42B2-BA11-7B91BAC400AA}"/>
+    <hyperlink ref="A3" r:id="rId1" display="Welcome@1" xr:uid="{8D423580-9759-4B45-BEC2-DB54A81633BE}"/>
+    <hyperlink ref="B3" r:id="rId2" display="Welcome@1" xr:uid="{36952CC0-8C8C-422D-A3E8-120238A49DE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>